--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/Sketch.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/Sketch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF02663-A3F8-41D3-98F4-FF4FAA1FA955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,6 +72,403 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364EB375-7EA6-433B-BAE7-B8282700BB0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="259080"/>
+          <a:ext cx="2179320" cy="1744980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t> Daily Rate by City</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0D0341-8723-439C-80B4-134C4D185360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="259080"/>
+          <a:ext cx="2164080" cy="1645920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t> Room Service Revenue by City</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC26CA9C-DEC9-4F69-82CD-349D3D97C872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="335280"/>
+          <a:ext cx="2148840" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Guest Count</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t> Versus Previous Year</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937D38D0-F8B8-4594-B0BC-B223C715C387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2392680"/>
+          <a:ext cx="3413760" cy="1722120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>PivotChart Chart showing departamental expenses by months or quarter</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D28ECF-A324-4324-AD02-788EF605018D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844540" y="2339340"/>
+          <a:ext cx="3870960" cy="1767840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>LineChart showing trends for city occupancy rates for the last two years</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B9F615-548C-4F85-8E1E-55F60D9C251E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="266700"/>
+          <a:ext cx="3878580" cy="1630680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Key performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t> indicators using icon set conditional formats for criteria to be determined</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,13 +767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>